--- a/TestCases/Back End/ReadTeamAssessments-BackEnd-TeamLead.xlsx
+++ b/TestCases/Back End/ReadTeamAssessments-BackEnd-TeamLead.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18801"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB01A130-9AA6-40AA-8294-773285C9B7A6}" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB01A130-9AA6-40AA-8294-773285C9B7A6}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/TestCases/Back End/ReadTeamAssessments-BackEnd-TeamLead.xlsx
+++ b/TestCases/Back End/ReadTeamAssessments-BackEnd-TeamLead.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18805"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB01A130-9AA6-40AA-8294-773285C9B7A6}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{BB01A130-9AA6-40AA-8294-773285C9B7A6}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{E5FD0C10-E65A-4C77-B5B2-49F006B612FD}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Role:Team Lead</t>
   </si>
@@ -35,22 +35,31 @@
     <t>Pass/Fail</t>
   </si>
   <si>
-    <t>Step 1: While logged out try to view kpis from the url</t>
+    <t>Step 1: While logged out try to view assessments from the url</t>
   </si>
   <si>
     <t>I am redirected to the login page</t>
   </si>
   <si>
-    <t>Step 2: Log in and from main page click on Team KPIs</t>
-  </si>
-  <si>
-    <t>I am shown a list of KPIs of people that is on my team</t>
-  </si>
-  <si>
-    <t>Step 3: While Logged in try to view another team's kpis</t>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Step 2: Log in and from main page click on Team Assessments</t>
+  </si>
+  <si>
+    <t>I am shown a list of assessments of people that is on my team</t>
+  </si>
+  <si>
+    <t>Step 3: While Logged in try to view another team's Assessments</t>
   </si>
   <si>
     <t>I am denied access to this</t>
+  </si>
+  <si>
+    <t>directed to another teams assessment</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -400,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -442,21 +451,33 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="58.5" customHeight="1">
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56.25" customHeight="1">
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="58.5" customHeight="1"/>
